--- a/biology/Zoologie/Aboutyou/Aboutyou.xlsx
+++ b/biology/Zoologie/Aboutyou/Aboutyou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chien égyptien Aboutyou, mort avant 2280 av. J.-C.[1], est l'un des premiers animaux domestiques dont le nom est connu. On pense qu'il s'agissait d'un chien de garde royal qui vivait sous la VIe dynastie et qui a reçu une sépulture cérémoniale élaborée dans la nécropole de Gizeh, à la demande d'un pharaon dont le nom est inconnu.
-Aboutyou semble avoir été un lévrier, ou un chien de chasse semblable à un lévrier, aux oreilles dressées et à la queue frisée[2]. Le tombeau dans lequel sa tablette a été découverte se trouve dans le cimetière G 2100, dans le terrain ouest de Gizeh, à proximité du côté ouest de la grande pyramide.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chien égyptien Aboutyou, mort avant 2280 av. J.-C., est l'un des premiers animaux domestiques dont le nom est connu. On pense qu'il s'agissait d'un chien de garde royal qui vivait sous la VIe dynastie et qui a reçu une sépulture cérémoniale élaborée dans la nécropole de Gizeh, à la demande d'un pharaon dont le nom est inconnu.
+Aboutyou semble avoir été un lévrier, ou un chien de chasse semblable à un lévrier, aux oreilles dressées et à la queue frisée. Le tombeau dans lequel sa tablette a été découverte se trouve dans le cimetière G 2100, dans le terrain ouest de Gizeh, à proximité du côté ouest de la grande pyramide.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Antécédents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hérodote indique que dans l'ancienne Perse, les chiens étaient des animaux protégés[3], tenu en haute estime au cours de leur vie[4]. Selon les Grecs anciens, les chiens de l’Égypte ancienne étaient traités avec le même respect qu'en Perse, et étaient fréquemment momifiés après leur mort, avant d'être enterrés dans des tombes familiales[4],[5],[6]. Les anciens Égyptiens et d'autres peuples du Proche-Orient croyaient que les chiens étaient des êtres spirituels, similaires aux humains, et ils étaient « souvent associés à des divinités et aux pouvoirs de celles-ci »[7]. Un certain nombre de sépultures des premières dynasties royales contiennent des tombes de chiens, avec celles des femmes et des serviteurs de la maison royale[8]. Le cimetière d'Ashkelon, dans le district sud d'Israël est peut-être le cimetière canin le mieux documenté du monde antique, mais un très grand nombre de momies de chiens ont été découvertes à travers toute l’Égypte, y compris à Rhoda, en Haute-Égypte[9], à Thèbes, à Abydos, et près de Maghagha[7].
-Les anciens Égyptiens momifiaient de nombreuses espèces animales, dont des chats, des gazelles, des crocodiles, des babouins et des oiseaux[10],[11],[12]. Généralement, de nombreuses espèces animales étaient consommées pour leur viande après la mort, mais il est très peu probable que les chiens aient été mangés[13]. Les radiographies de chiens exhumés dans le monde antique ont révélé que le processus de momification impliquait l'emballage des os avec des bandages et leur insertion à l'intérieur d'une statue en bois d'Anubis, le dieu chacal associé à la momification et à l'au-delà dans la religion égyptienne antique[13].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hérodote indique que dans l'ancienne Perse, les chiens étaient des animaux protégés, tenu en haute estime au cours de leur vie. Selon les Grecs anciens, les chiens de l’Égypte ancienne étaient traités avec le même respect qu'en Perse, et étaient fréquemment momifiés après leur mort, avant d'être enterrés dans des tombes familiales. Les anciens Égyptiens et d'autres peuples du Proche-Orient croyaient que les chiens étaient des êtres spirituels, similaires aux humains, et ils étaient « souvent associés à des divinités et aux pouvoirs de celles-ci ». Un certain nombre de sépultures des premières dynasties royales contiennent des tombes de chiens, avec celles des femmes et des serviteurs de la maison royale. Le cimetière d'Ashkelon, dans le district sud d'Israël est peut-être le cimetière canin le mieux documenté du monde antique, mais un très grand nombre de momies de chiens ont été découvertes à travers toute l’Égypte, y compris à Rhoda, en Haute-Égypte, à Thèbes, à Abydos, et près de Maghagha.
+Les anciens Égyptiens momifiaient de nombreuses espèces animales, dont des chats, des gazelles, des crocodiles, des babouins et des oiseaux. Généralement, de nombreuses espèces animales étaient consommées pour leur viande après la mort, mais il est très peu probable que les chiens aient été mangés. Les radiographies de chiens exhumés dans le monde antique ont révélé que le processus de momification impliquait l'emballage des os avec des bandages et leur insertion à l'intérieur d'une statue en bois d'Anubis, le dieu chacal associé à la momification et à l'au-delà dans la religion égyptienne antique.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La seule source dont Aboutyou est connue est une tablette d'inscription en pierre inscrite énumérant les cadeaux offerts par le pharaon pour les funérailles d'Aboutyou qui pourrait provenir de la chapelle funéraire du propriétaire du chien[14]. La tablette se trouvait apparemment parmi les spolia utilisés pour construire une autre tombe vers 2280 avant notre ère, un mastaba de la VIe dynastie, après la démolition de la chapelle[15],[1]. Elle a été découverte le 13 octobre 1935 par l'égyptologue George Andrew Reisner lors d'une expédition conjointe de l'université Harvard-Musée des Beaux-Arts (Boston), et retirée du site quatre jours plus tard[16],[17],[18],[19].
-La découverte a été enregistrée par le principal photographe de l'expédition, Mohammedani Ibrahim, qui a pris plus de 9 321 photos grand format sur plaque de verre lors des expéditions de Reisner[20],[21]. La tablette est aujourd'hui détenue par le Musée égyptien du Caire (numéro d'inventaire JE 67573).
-Ni la tombe du chien ni la momie n'ont été retrouvées[22]. La tombe dans laquelle la tablette a été déterrée se trouve dans le cimetière G 2100 près du côté ouest de la pyramide de Khéops[23],[24]. La tablette en calcaire blanc mesure 54,2 × 28,2 × 23,2 cm et est inscrite avec dix rangées verticales de hiéroglyphes, séparées les unes des autres par des lignes verticales. Une partie d'une laisse est visible dans l'angle supérieur droit, ce qui suggère que la tablette présentait une image d'Aboutyou avec son propriétaire[22].
-Le texte de l'inscription traduit par Reisner décrit les cadeaux offerts par le pharaon en hommage aux funérailles d'Aboutyou[25] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La seule source dont Aboutyou est connue est une tablette d'inscription en pierre inscrite énumérant les cadeaux offerts par le pharaon pour les funérailles d'Aboutyou qui pourrait provenir de la chapelle funéraire du propriétaire du chien. La tablette se trouvait apparemment parmi les spolia utilisés pour construire une autre tombe vers 2280 avant notre ère, un mastaba de la VIe dynastie, après la démolition de la chapelle,. Elle a été découverte le 13 octobre 1935 par l'égyptologue George Andrew Reisner lors d'une expédition conjointe de l'université Harvard-Musée des Beaux-Arts (Boston), et retirée du site quatre jours plus tard.
+La découverte a été enregistrée par le principal photographe de l'expédition, Mohammedani Ibrahim, qui a pris plus de 9 321 photos grand format sur plaque de verre lors des expéditions de Reisner,. La tablette est aujourd'hui détenue par le Musée égyptien du Caire (numéro d'inventaire JE 67573).
+Ni la tombe du chien ni la momie n'ont été retrouvées. La tombe dans laquelle la tablette a été déterrée se trouve dans le cimetière G 2100 près du côté ouest de la pyramide de Khéops,. La tablette en calcaire blanc mesure 54,2 × 28,2 × 23,2 cm et est inscrite avec dix rangées verticales de hiéroglyphes, séparées les unes des autres par des lignes verticales. Une partie d'une laisse est visible dans l'angle supérieur droit, ce qui suggère que la tablette présentait une image d'Aboutyou avec son propriétaire.
+Le texte de l'inscription traduit par Reisner décrit les cadeaux offerts par le pharaon en hommage aux funérailles d'Aboutyou :
 « Le chien qui était la garde de Sa Majesté, Aboutyou est son nom. Sa Majesté a ordonné qu'il soit enterré (cérémonieusement), qu'on lui donne un cercueil provenant du trésor royal, du linge fin en grande quantité, (et) de l'encens. Sa Majesté a également donné un onguent parfumé et a ordonné qu'un tombeau soit construit pour lui par les équipes de maçons. Sa Majesté a fait cela pour lui afin qu'il (le chien) soit honoré (devant le grand dieu, Anubis). »
 </t>
         </is>
@@ -579,10 +595,12 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'il soit courant d'enterrer des chiens dans l'Égypte antique, les funérailles d'Aboutyou sont exceptionnellement élaborées, un honneur normalement réservé aux humains de la classe supérieure[15]. Les cadeaux du pharaon suggèrent que le cadavre a été momifié, comme cela se faisait couramment pour les humains à l'époque, dans la croyance que le ka du mort entrerait dans sa vie après la mort grâce à l'enterrement cérémonial.
-Bien qu'aucune image d'Aboutyou n'ait été trouvée, le texte le caractérise comme un Tesem), un chien de chasse de constitution légère semblable à un lévrier, aux oreilles dressées et à la queue frisée. Le Tesem est présent dans les représentations de l'Égypte préhistorique, ce qui en fait l'une des plus anciennes races de chiens connues, et ses images sont courantes dans l'histoire de l'Égypte antique. Selon Reisner, le nom « Aboutyou » n'est pas entièrement traduisible, mais il suppose que ꜥbw est une représentation onomatopée de l'aboiement d'un chien, car cette composante se retrouve souvent dans les noms de chiens de l'Égypte antique[2]. Edward C. Martin Jr. affirme que le nom signifie « aux oreilles pointues », ce qui correspondrait à la description du Tesem[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'il soit courant d'enterrer des chiens dans l'Égypte antique, les funérailles d'Aboutyou sont exceptionnellement élaborées, un honneur normalement réservé aux humains de la classe supérieure. Les cadeaux du pharaon suggèrent que le cadavre a été momifié, comme cela se faisait couramment pour les humains à l'époque, dans la croyance que le ka du mort entrerait dans sa vie après la mort grâce à l'enterrement cérémonial.
+Bien qu'aucune image d'Aboutyou n'ait été trouvée, le texte le caractérise comme un Tesem), un chien de chasse de constitution légère semblable à un lévrier, aux oreilles dressées et à la queue frisée. Le Tesem est présent dans les représentations de l'Égypte préhistorique, ce qui en fait l'une des plus anciennes races de chiens connues, et ses images sont courantes dans l'histoire de l'Égypte antique. Selon Reisner, le nom « Aboutyou » n'est pas entièrement traduisible, mais il suppose que ꜥbw est une représentation onomatopée de l'aboiement d'un chien, car cette composante se retrouve souvent dans les noms de chiens de l'Égypte antique. Edward C. Martin Jr. affirme que le nom signifie « aux oreilles pointues », ce qui correspondrait à la description du Tesem.
 </t>
         </is>
       </c>
